--- a/ILRG_Hluvukani_B_histórias_interessantes/ILRG_Hluvukani_B_historias_interessantes-media/ILRG_Hluvukani_B_historias_interessantes.xlsx
+++ b/ILRG_Hluvukani_B_histórias_interessantes/ILRG_Hluvukani_B_historias_interessantes-media/ILRG_Hluvukani_B_historias_interessantes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_B_histórias_interessantes\ILRG_Hluvukani_B_histórias_interessantes-media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_B_histórias_interessantes\ILRG_Hluvukani_B_historias_interessantes-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10814EA1-EE60-425B-A856-242AB734DF8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9546D9-4416-49B3-80F2-3D2549F62BFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
   <si>
     <t>type</t>
   </si>
@@ -171,78 +171,6 @@
   </si>
   <si>
     <t>regex(., "^[a-zA-Z0-9. _-éáíóãõúçâê]{1,100}$")</t>
-  </si>
-  <si>
-    <t>AJZ</t>
-  </si>
-  <si>
-    <t>Armando Junior Zuana</t>
-  </si>
-  <si>
-    <t>CMJX</t>
-  </si>
-  <si>
-    <t>Cacilda Mothasse Jocicaze Xerinda</t>
-  </si>
-  <si>
-    <t>CEM</t>
-  </si>
-  <si>
-    <t>Carlos Eduardo Mujovo</t>
-  </si>
-  <si>
-    <t>CGT</t>
-  </si>
-  <si>
-    <t>Coronel Gelsio Timana</t>
-  </si>
-  <si>
-    <t>EAM</t>
-  </si>
-  <si>
-    <t>Efigencia Alberto Mavondza</t>
-  </si>
-  <si>
-    <t>ESM</t>
-  </si>
-  <si>
-    <t>Elton Salomao Munguambe</t>
-  </si>
-  <si>
-    <t>HBM</t>
-  </si>
-  <si>
-    <t>Helena Benjamim Mondlane</t>
-  </si>
-  <si>
-    <t>JFM</t>
-  </si>
-  <si>
-    <t>Julio Fernando Manheia</t>
-  </si>
-  <si>
-    <t>NES</t>
-  </si>
-  <si>
-    <t>Nomisse Eugenio Sitoe</t>
-  </si>
-  <si>
-    <t>NPL</t>
-  </si>
-  <si>
-    <t>Noniua Paudelina Luis</t>
-  </si>
-  <si>
-    <t>RXA</t>
-  </si>
-  <si>
-    <t>Raquel Xavier Ambasse</t>
-  </si>
-  <si>
-    <t>VLM</t>
-  </si>
-  <si>
-    <t>Valdemiro Luis Mondlane</t>
   </si>
   <si>
     <t/>
@@ -438,15 +366,121 @@
   </si>
   <si>
     <t>concat('stories','_',${date},'_',${tec_name})</t>
+  </si>
+  <si>
+    <t>Armando_Zuana</t>
+  </si>
+  <si>
+    <t>Armando Zuana</t>
+  </si>
+  <si>
+    <t>Boaventura_Jovo</t>
+  </si>
+  <si>
+    <t>Boaventura Jovo</t>
+  </si>
+  <si>
+    <t>Carlos_Munjovo</t>
+  </si>
+  <si>
+    <t>Carlos Munjovo</t>
+  </si>
+  <si>
+    <t>Edmilson_Momade</t>
+  </si>
+  <si>
+    <t>Edmilson Momade</t>
+  </si>
+  <si>
+    <t>Edson_Adozinda</t>
+  </si>
+  <si>
+    <t>Edson Adozinda</t>
+  </si>
+  <si>
+    <t>Efigencia_Alberto</t>
+  </si>
+  <si>
+    <t>Efigencia Alberto</t>
+  </si>
+  <si>
+    <t>Ester_Matlombe</t>
+  </si>
+  <si>
+    <t>Ester Matlombe</t>
+  </si>
+  <si>
+    <t>Gercia_A.Mabunda</t>
+  </si>
+  <si>
+    <t>Gercia A.Mabunda</t>
+  </si>
+  <si>
+    <t>Guilherme_Nhacundela</t>
+  </si>
+  <si>
+    <t>Guilherme Nhacundela</t>
+  </si>
+  <si>
+    <t>Helena_Bila</t>
+  </si>
+  <si>
+    <t>Helena Bila</t>
+  </si>
+  <si>
+    <t>Herondina_Timane</t>
+  </si>
+  <si>
+    <t>Herondina Timane</t>
+  </si>
+  <si>
+    <t>Irene_Timane</t>
+  </si>
+  <si>
+    <t>Irene Timane</t>
+  </si>
+  <si>
+    <t>Julio_Manheia</t>
+  </si>
+  <si>
+    <t>Julio Manheia</t>
+  </si>
+  <si>
+    <t>Ossifo_Pinto</t>
+  </si>
+  <si>
+    <t>Ossifo Pinto</t>
+  </si>
+  <si>
+    <t>Raquel_Ambasse</t>
+  </si>
+  <si>
+    <t>Raquel Ambasse</t>
+  </si>
+  <si>
+    <t>Sandra_Dimande</t>
+  </si>
+  <si>
+    <t>Sandra Dimande</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -618,18 +652,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -643,334 +671,334 @@
   </borders>
   <cellStyleXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="236">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1650,13 +1678,13 @@
     </row>
     <row r="4" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -1667,19 +1695,19 @@
         <v>34</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2"/>
       <c r="L6" s="34" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -1687,10 +1715,10 @@
         <v>35</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -1698,15 +1726,15 @@
         <v>35</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B9" s="35"/>
     </row>
@@ -1718,7 +1746,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1726,7 +1754,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>37</v>
@@ -1742,19 +1770,19 @@
     </row>
     <row r="12" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -1762,13 +1790,13 @@
         <v>27</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>22</v>
@@ -1779,13 +1807,13 @@
         <v>27</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>22</v>
@@ -1793,7 +1821,7 @@
     </row>
     <row r="15" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B15" s="35"/>
     </row>
@@ -1819,13 +1847,13 @@
     </row>
     <row r="17" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="J17" s="32" t="s">
         <v>22</v>
@@ -1836,16 +1864,16 @@
     </row>
     <row r="18" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="J18" s="32" t="s">
         <v>22</v>
@@ -1877,7 +1905,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>43</v>
@@ -1897,7 +1925,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>45</v>
@@ -1931,13 +1959,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,399 +2000,447 @@
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>48</v>
+      <c r="B3" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>112</v>
       </c>
       <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>50</v>
+      <c r="B4" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>114</v>
       </c>
       <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>52</v>
+      <c r="B5" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>116</v>
       </c>
       <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>54</v>
+      <c r="B6" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>56</v>
+      <c r="B7" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>120</v>
       </c>
       <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>58</v>
+      <c r="B8" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>122</v>
       </c>
       <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>60</v>
+      <c r="B9" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>124</v>
       </c>
       <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>62</v>
+      <c r="B10" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>64</v>
+      <c r="B11" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>128</v>
       </c>
       <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>66</v>
+      <c r="B12" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>130</v>
       </c>
       <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>68</v>
+      <c r="B13" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>70</v>
+      <c r="B14" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>134</v>
       </c>
       <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="31"/>
       <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>74</v>
-      </c>
+      <c r="A20" s="31"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>75</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>77</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>107</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
-      <c r="B23" s="33"/>
+      <c r="B23" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>129</v>
+      <c r="A24" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>73</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>129</v>
+      <c r="A25" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>73</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>129</v>
+      <c r="A26" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>73</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>73</v>
-      </c>
+      <c r="A27" s="31"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>77</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:C18">
-    <sortCondition ref="C14:C18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:C22">
+    <sortCondition ref="C14:C22"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2375,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -2404,16 +2480,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4">
         <v>201902282</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/ILRG_Hluvukani_B_histórias_interessantes/ILRG_Hluvukani_B_historias_interessantes-media/ILRG_Hluvukani_B_historias_interessantes.xlsx
+++ b/ILRG_Hluvukani_B_histórias_interessantes/ILRG_Hluvukani_B_historias_interessantes-media/ILRG_Hluvukani_B_historias_interessantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_B_histórias_interessantes\ILRG_Hluvukani_B_historias_interessantes-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9546D9-4416-49B3-80F2-3D2549F62BFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D077AD-1C55-4749-9A2E-47C325314023}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -359,9 +359,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>Hluvukani_B</t>
-  </si>
-  <si>
     <t>ILRG Hluvukani B - Historias Interessantes</t>
   </si>
   <si>
@@ -465,6 +462,9 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>ILRG_Hluvukani_B</t>
   </si>
 </sst>
 </file>
@@ -1961,11 +1961,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:C19"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,10 +2004,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>111</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>112</v>
       </c>
       <c r="D3" s="32"/>
     </row>
@@ -2016,10 +2016,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>113</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>114</v>
       </c>
       <c r="D4" s="32"/>
     </row>
@@ -2028,10 +2028,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>115</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>116</v>
       </c>
       <c r="D5" s="32"/>
     </row>
@@ -2040,10 +2040,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>118</v>
       </c>
       <c r="D6" s="32"/>
     </row>
@@ -2052,10 +2052,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>120</v>
       </c>
       <c r="D7" s="32"/>
     </row>
@@ -2064,10 +2064,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>121</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>122</v>
       </c>
       <c r="D8" s="31"/>
     </row>
@@ -2076,10 +2076,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>123</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>124</v>
       </c>
       <c r="D9" s="31"/>
     </row>
@@ -2088,10 +2088,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>125</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>126</v>
       </c>
       <c r="D10" s="31"/>
     </row>
@@ -2100,10 +2100,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>127</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>128</v>
       </c>
       <c r="D11" s="31"/>
     </row>
@@ -2112,10 +2112,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>129</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>130</v>
       </c>
       <c r="D12" s="31"/>
     </row>
@@ -2124,10 +2124,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>131</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>132</v>
       </c>
       <c r="D13" s="31"/>
     </row>
@@ -2136,10 +2136,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="41" t="s">
         <v>133</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>134</v>
       </c>
       <c r="D14" s="31"/>
     </row>
@@ -2148,10 +2148,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="41" t="s">
         <v>135</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>136</v>
       </c>
       <c r="D15" s="31"/>
     </row>
@@ -2160,10 +2160,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>137</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>138</v>
       </c>
       <c r="D16" s="31"/>
     </row>
@@ -2172,10 +2172,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>139</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>140</v>
       </c>
       <c r="D17" s="31"/>
     </row>
@@ -2184,10 +2184,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>141</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>142</v>
       </c>
       <c r="D18" s="31"/>
     </row>
@@ -2196,7 +2196,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>32</v>
@@ -2451,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,16 +2480,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="4">
+        <v>201902283</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="4">
-        <v>201902282</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/ILRG_Hluvukani_B_histórias_interessantes/ILRG_Hluvukani_B_historias_interessantes-media/ILRG_Hluvukani_B_historias_interessantes.xlsx
+++ b/ILRG_Hluvukani_B_histórias_interessantes/ILRG_Hluvukani_B_historias_interessantes-media/ILRG_Hluvukani_B_historias_interessantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_B_histórias_interessantes\ILRG_Hluvukani_B_historias_interessantes-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D077AD-1C55-4749-9A2E-47C325314023}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA9927-6530-40E9-97CF-ADEB65DA07FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$D$12</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="132">
   <si>
     <t>type</t>
   </si>
@@ -212,19 +212,10 @@
     <t>C</t>
   </si>
   <si>
-    <t>Palmeira 1</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>Palmeira 2</t>
-  </si>
-  <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>Palmeira 3</t>
   </si>
   <si>
     <t>F</t>
@@ -377,103 +368,83 @@
     <t>Boaventura Jovo</t>
   </si>
   <si>
-    <t>Carlos_Munjovo</t>
-  </si>
-  <si>
-    <t>Carlos Munjovo</t>
-  </si>
-  <si>
-    <t>Edmilson_Momade</t>
-  </si>
-  <si>
-    <t>Edmilson Momade</t>
-  </si>
-  <si>
-    <t>Edson_Adozinda</t>
-  </si>
-  <si>
-    <t>Edson Adozinda</t>
-  </si>
-  <si>
-    <t>Efigencia_Alberto</t>
-  </si>
-  <si>
-    <t>Efigencia Alberto</t>
-  </si>
-  <si>
-    <t>Ester_Matlombe</t>
-  </si>
-  <si>
-    <t>Ester Matlombe</t>
-  </si>
-  <si>
-    <t>Gercia_A.Mabunda</t>
-  </si>
-  <si>
-    <t>Gercia A.Mabunda</t>
-  </si>
-  <si>
-    <t>Guilherme_Nhacundela</t>
-  </si>
-  <si>
-    <t>Guilherme Nhacundela</t>
-  </si>
-  <si>
     <t>Helena_Bila</t>
   </si>
   <si>
     <t>Helena Bila</t>
   </si>
   <si>
-    <t>Herondina_Timane</t>
-  </si>
-  <si>
-    <t>Herondina Timane</t>
-  </si>
-  <si>
-    <t>Irene_Timane</t>
-  </si>
-  <si>
-    <t>Irene Timane</t>
-  </si>
-  <si>
     <t>Julio_Manheia</t>
   </si>
   <si>
     <t>Julio Manheia</t>
   </si>
   <si>
-    <t>Ossifo_Pinto</t>
-  </si>
-  <si>
-    <t>Ossifo Pinto</t>
-  </si>
-  <si>
     <t>Raquel_Ambasse</t>
   </si>
   <si>
     <t>Raquel Ambasse</t>
   </si>
   <si>
-    <t>Sandra_Dimande</t>
-  </si>
-  <si>
-    <t>Sandra Dimande</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
     <t>ILRG_Hluvukani_B</t>
+  </si>
+  <si>
+    <t>Carlos_Mujovo</t>
+  </si>
+  <si>
+    <t>Carlos Mujovo</t>
+  </si>
+  <si>
+    <t>Edson_Ernesto</t>
+  </si>
+  <si>
+    <t>Edson Ernesto</t>
+  </si>
+  <si>
+    <t>Efigencia_Mavondza</t>
+  </si>
+  <si>
+    <t>Efigencia Mavondza</t>
+  </si>
+  <si>
+    <t>Gercia_Mabunda</t>
+  </si>
+  <si>
+    <t>Gercia Mabunda</t>
+  </si>
+  <si>
+    <t>Irene_Timana</t>
+  </si>
+  <si>
+    <t>Irene Timana</t>
+  </si>
+  <si>
+    <t>Palmeira Norte</t>
+  </si>
+  <si>
+    <t>Palmeira Centro</t>
+  </si>
+  <si>
+    <t>Palmeira Sul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -671,321 +642,325 @@
   </borders>
   <cellStyleXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1575,11 +1550,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,13 +1653,13 @@
     </row>
     <row r="4" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -1695,19 +1670,19 @@
         <v>34</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2"/>
       <c r="L6" s="34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -1715,10 +1690,10 @@
         <v>35</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -1726,15 +1701,15 @@
         <v>35</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B9" s="35"/>
     </row>
@@ -1746,7 +1721,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1754,7 +1729,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>37</v>
@@ -1770,19 +1745,19 @@
     </row>
     <row r="12" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -1790,13 +1765,13 @@
         <v>27</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>22</v>
@@ -1807,13 +1782,13 @@
         <v>27</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>22</v>
@@ -1821,7 +1796,7 @@
     </row>
     <row r="15" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B15" s="35"/>
     </row>
@@ -1847,13 +1822,13 @@
     </row>
     <row r="17" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J17" s="32" t="s">
         <v>22</v>
@@ -1864,16 +1839,16 @@
     </row>
     <row r="18" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J18" s="32" t="s">
         <v>22</v>
@@ -1905,7 +1880,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>43</v>
@@ -1925,7 +1900,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>45</v>
@@ -1959,13 +1934,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,7 +1953,7 @@
     <col min="6" max="16384" width="10.875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1993,454 +1968,376 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="9"/>
       <c r="C2" s="2"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="43" t="s">
+    </row>
+    <row r="5" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="45"/>
+    </row>
+    <row r="8" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="45"/>
+    </row>
+    <row r="9" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="C9" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="45"/>
+    </row>
+    <row r="10" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="43" t="s">
+      <c r="B10" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="45"/>
+    </row>
+    <row r="11" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="C11" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="43" t="s">
+      <c r="B12" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="42" t="s">
+      <c r="C12" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="D25" s="43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="33" t="s">
+      <c r="D26" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="31"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="33" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="31"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="31"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:C22">
-    <sortCondition ref="C14:C22"/>
+  <autoFilter ref="A1:D12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C13:C16">
+    <sortCondition ref="C14:C16"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2451,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,16 +2377,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C2" s="4">
-        <v>201902283</v>
+        <v>201903081</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
